--- a/StructureDefinition-us-cbs-performing-lab.xlsx
+++ b/StructureDefinition-us-cbs-performing-lab.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T17:12:45-05:00</t>
+    <t>2022-02-17T15:59:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
